--- a/data/hotels_by_city/Dallas/Dallas_shard_218.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_218.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="275">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>29alyssar</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Overall, this place was pretty gross. The entire 2nd floor smelled like marijuana. The floors in our room were dirty and neither swept nor vacuumed. The toilet leaked water. The kitchen area was not clean, and had leftover food in the cabinets from a previous tenant. Thankfully, we were only here to sleep 1 night and leave immediately the next morning.More</t>
   </si>
   <si>
+    <t>Rakim H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r525467275-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>Great customer service, rooms are clean, and good location. Grab and go breakfast in the mornings also weekly's housekeeping for you. If those qualities in a extended stay hotel then this the place for you.More</t>
   </si>
   <si>
+    <t>Nino R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r567661198-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>We booked through Priceline and understand you get what you get but the remote didn't work, the fridge was not cleaned, no evening staff attendant available, and no grab and go breakfast for us whrn we checked out at 8am.More</t>
   </si>
   <si>
+    <t>Michelle S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r565647271-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -270,6 +282,9 @@
     <t>Love in penthouse @ the Extended Stay! My family and I are evacuees from Houston. This is the first time in 6 months that we've felt at home since losing it all. The ppl here are wonderfully nice and caring and kind. Ty Extended Stay for making this home!More</t>
   </si>
   <si>
+    <t>yangy03</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r560963518-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -298,6 +313,9 @@
   </si>
   <si>
     <t>Worst stay ever!!!!!!!!!! I didn't even stay because it was just that disgusting. I checked in after my 5 hour drive. The front desk told me that this was a non-smoking hotel. I was pretty happy with this because I hate the smell of cigs and etc. I got up to Level 2 and walked into the hallway it smelled like weed straight up. Went into my room 231 and was just happy to see such a cute homey place UNTIL! I noticed the fridge had some sticky brown stuff on it. The microwave was sticky on the outside. The floor was dirty, it didn't even look like it was mopped or vaccumed. The bed sheets had makeup stains, and I hope that it was that and not something else. The kitchen draws were dirty as well as the drawers for the clothes, EXCEPT in the drawers there were freaking PUBIC hair. I called front desk to complain and he told me there wasn't another room available. I had to get my refund because they went ahead and charged me already, so now I have to wait 5 ton7 business days to get my money back. I had to look for a new place to stay at 11 PM at night. Worst place ever and when I tried calling the 1-800 # it said they provide clean and comfy rooms. These rooms were probably worst than MOTEL 6! I have...Worst stay ever!!!!!!!!!! I didn't even stay because it was just that disgusting. I checked in after my 5 hour drive. The front desk told me that this was a non-smoking hotel. I was pretty happy with this because I hate the smell of cigs and etc. I got up to Level 2 and walked into the hallway it smelled like weed straight up. Went into my room 231 and was just happy to see such a cute homey place UNTIL! I noticed the fridge had some sticky brown stuff on it. The microwave was sticky on the outside. The floor was dirty, it didn't even look like it was mopped or vaccumed. The bed sheets had makeup stains, and I hope that it was that and not something else. The kitchen draws were dirty as well as the drawers for the clothes, EXCEPT in the drawers there were freaking PUBIC hair. I called front desk to complain and he told me there wasn't another room available. I had to get my refund because they went ahead and charged me already, so now I have to wait 5 ton7 business days to get my money back. I had to look for a new place to stay at 11 PM at night. Worst place ever and when I tried calling the 1-800 # it said they provide clean and comfy rooms. These rooms were probably worst than MOTEL 6! I have never see such disgusting place that was SUPPOSEDLY clean!!!! I was supposed to have a weekend getaway instead I HAD to GETAWAY from this hotel place. Thanks for ruining my weekend. P.s. did I mention the dripping sink too?!More</t>
+  </si>
+  <si>
+    <t>Myboo99</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r560934094-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
@@ -323,6 +341,9 @@
 They charged my card the no show fee for 1 night. I totally understand rules &amp; we were told about the no show rule. But seriously, sometimes in life there are times rules can be bent. They weren’t out anything by not showing up by 6pm I’m sure they rented that...I never even got the opportunity to stay at this hotel. We found out our townhome was full of mold from the HVAC unit. The property was allowing us to stay in their model considering my unit was making me deathly ill. When they found out I was paying out of pocket for a professional mold assessment they asked us to leave the model on a Friday night at 6pm, to be out by Monday. I booked a room at this hotel for a month check in on Sunday. Saturday was sold out. Saturday at noon I received an email telling us we had to get out by 5pm that day. Here I was in a panic packing up 2 cats, a 4 year old &amp; 2 adults to leave within hours. ES had no openings I had to find somewhere to go that night. My townhouse manager was threatening to change the locks. Illegal I know but I couldn’t risk losing what little personal items we had to our name. In the midst of all the chaos I forgot to call &amp; cancel the room at this location. They charged my card the no show fee for 1 night. I totally understand rules &amp; we were told about the no show rule. But seriously, sometimes in life there are times rules can be bent. They weren’t out anything by not showing up by 6pm I’m sure they rented that room anyways. It’s not like I stayed &amp; didn’t pay for it. I called in tears when I realized what had happened but they basically said too bad too late. They didn’t have an ounce of compassion whatsoever. Therefore I will never stay or recommend anyone stay at an extended stay ever. Candlewood Suites however has been amazing if you need another suggestion. Care more, be compassionate, stop making every single thing about money, customer service is a good place to start. More</t>
   </si>
   <si>
+    <t>Amber T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r557445022-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -350,6 +371,9 @@
     <t>We feel well taken care of. Always greeted promptly and reminded to ask for anything we need. The stand out for us is Wendy. She treats us like family and is very professional. So glad we chose this location!More</t>
   </si>
   <si>
+    <t>TMR87</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r552708348-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -359,6 +383,9 @@
     <t>January 9, 2018</t>
   </si>
   <si>
+    <t>Richie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r552560780-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -386,6 +413,9 @@
     <t>For two months my stay has been excellent.the entire staff have been so good to me.I would recommend it to everyone.very nice and clean place. Room are clean and the area is nice with many restaurants and storesMore</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r552054129-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -410,6 +440,9 @@
     <t>Excellent staff that helped me out alot. I recommend this hotel to anyone in the Area. There is a very nice relaxing energy there. Shorterm stay or long term. Clean rooms and the service is outstanding.More</t>
   </si>
   <si>
+    <t>Phantazia G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r546993049-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -434,6 +467,9 @@
     <t>Val, Michelle, Mamaduo have very great customer service people. They are very alert, nice, and just awesome. Love them. I will definitely come back. Breakfeast is out and on time. Nice costomer service great conversations make you feel like your at home not just in an hotel had all dishes towels laundry soap everything I needed.More</t>
   </si>
   <si>
+    <t>Jim G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r537682386-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -461,6 +497,9 @@
     <t>We booked this hotel for a weekend stay.  One of the attractions was the large refrigerator and kitchen.  Here's the problem.  Our room had absolutely no kitchen equipment.  There were no dishes, glasses, flatware, pots, pans, or utensils in the room.  The room was poorly maintained.  We put an empty roll-aboard suitcase in the closet shelf.  Within seconds the shelf collapsed.  I have my doubts about renting any ESA hotel room.  This hotel is, of course, on the do not call list.More</t>
   </si>
   <si>
+    <t>412huyv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r534130695-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -485,6 +524,9 @@
     <t>Had a confirmed king size bed but none were available at check-in and still charge me the king size bed rate for the whole weekend. Most of the rooms smell of smoke. No breakfast only coffee.  Given a room with no TV or phone so had to request a different room. More</t>
   </si>
   <si>
+    <t>Melissa O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r532088456-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -509,6 +551,9 @@
     <t>The manager and staff are very professional, helpful and just overall friendly. From the maintenance man to the maid to the front desk to manager. A PROFESSIONAL but down to earth environment at the same Time. Pet friendly , clean and great location.More</t>
   </si>
   <si>
+    <t>ascarbrow66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r508777898-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -539,6 +584,9 @@
     <t>Stayed here for two weeks and encountered no issues. All need facilities on site with helpful staff as well as breakfast in the morning being a nice touch. A good location with almost everything needed within a 5 minuet radius.More</t>
   </si>
   <si>
+    <t>62richardalang</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r507979367-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -566,6 +614,9 @@
     <t>Newly remodeled like a barn stall.  Not so nice. A lot of little details were broken, trashed. Looks like somebody just tried to save money... to make more money from the guests. The breakfast was a coffee machine and oatmeal packets.   The lobby was also their storage area. Told they did not have enough money to buy proper utensils.  Had to boil water in a saucepan.   Things looked roughed up...  Like a barn stall.More</t>
   </si>
   <si>
+    <t>James H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r507286037-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -590,6 +641,9 @@
     <t>I have stayed at the location before. It has gotten worse every time. This stay took the prize for the worst! Between the panhandlers, protistutes, drug deals in the parking lot, the people scoping out my vehicle, and people smoking pot in the stairwell, not to mention the staff that were busy with everything else EXCEPT customer service, I checked out early and it will take a small miracle to get me to return.More</t>
   </si>
   <si>
+    <t>E2061ZIdanielb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r506774997-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -608,6 +662,9 @@
     <t>Excellent Service fair price best location for my visit. If I come again to Dallas I will stay with Extended stay America for sure. Best service very nice and friendly employee. Thank you for quality service you provide.More</t>
   </si>
   <si>
+    <t>970latashaj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r504839947-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -632,6 +689,9 @@
     <t>Bathroom was very smelling. It reeked of urine.. Housekeeping didn't provide big towels so I had to go get them.. Also there was roaches crawling on the bathroom floor.. Not a good experience this time..More</t>
   </si>
   <si>
+    <t>H9652HSlarryw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r500067283-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -659,6 +719,9 @@
     <t>This was a difficult situation for me me because the staff was awesome, but unfortunately I was bitten by bedbugs in my first room only to be attacked again in the next room I was sent to. If not for the bug problem, I would of had a wonderful experience.More</t>
   </si>
   <si>
+    <t>Jo B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r496232432-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -683,6 +746,9 @@
     <t>The rooms are clean an my service was by far best i had with extended stay in long time front desk Khandi was very nice and professional she took time make sure everything was in order for my stay i appreciate her going extra mile to make sure guest are comfortable thanks again definitely will stay again.More</t>
   </si>
   <si>
+    <t>Joanna M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r496207623-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -698,6 +764,9 @@
     <t>The Stay was very relaxing,It gave me a much needed relaxation.Ms.Khandi is a great host.She was sooo very kind.Even the room was very nice ,it was an awsome stay.Thanks to Ms Khandi*_*If I was shopping for a hotel in the future Extended Stay America would be my numberMore</t>
   </si>
   <si>
+    <t>Diamond P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r494073366-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -722,6 +791,9 @@
     <t>The rooms are clean. The staff is great! More so the Manager here is very friendly  and shows that he cares about you having a comfortable stay.  He addresses and concerns you may have immediately. If you need a place to stay for a while or even for a night...make Extended Stay America-dallas Greenville Ave. your 1st choice!More</t>
   </si>
   <si>
+    <t>Donnie D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r493104577-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -744,6 +816,9 @@
   </si>
   <si>
     <t>The Service at this Hotel was Great!But Khandi the Lady at the front deskWas exceptional. Very knowledgeable and helpful.Overall very well kept and tidy rooms are spacious and Accommodating.Thanks ESH!More</t>
+  </si>
+  <si>
+    <t>vernishar</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r491363898-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
@@ -1272,43 +1347,47 @@
       <c r="A2" t="n">
         <v>37294</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>136039</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -1330,56 +1409,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37294</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>136040</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1391,56 +1474,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37294</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>136041</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -1462,56 +1549,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37294</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>6394</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -1533,56 +1624,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37294</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>136042</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1594,47 +1689,51 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37294</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>136043</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
@@ -1651,56 +1750,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="X7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37294</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>14639</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1712,41 +1815,45 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37294</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>136044</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -1762,51 +1869,52 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
-      <c r="Y9" t="s"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37294</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>136045</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="O10" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1818,56 +1926,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="X10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="Y10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37294</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1879,56 +1991,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="X11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="Y11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37294</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>136046</v>
+      </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1940,56 +2056,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="X12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="Y12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37294</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>922</v>
+      </c>
+      <c r="C13" t="s">
+        <v>149</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="K13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2007,56 +2127,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="X13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="Y13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37294</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>136047</v>
+      </c>
+      <c r="C14" t="s">
+        <v>159</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="J14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="K14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="O14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P14" t="n">
         <v>2</v>
@@ -2078,56 +2202,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="X14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="Y14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37294</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>97596</v>
+      </c>
+      <c r="C15" t="s">
+        <v>168</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" t="s">
+        <v>170</v>
+      </c>
+      <c r="J15" t="s">
+        <v>171</v>
+      </c>
+      <c r="K15" t="s">
+        <v>172</v>
+      </c>
+      <c r="L15" t="s">
+        <v>173</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>155</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
-        <v>156</v>
-      </c>
-      <c r="J15" t="s">
-        <v>157</v>
-      </c>
-      <c r="K15" t="s">
-        <v>158</v>
-      </c>
-      <c r="L15" t="s">
-        <v>159</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>143</v>
-      </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -2145,56 +2273,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="X15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="Y15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37294</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>136048</v>
+      </c>
+      <c r="C16" t="s">
+        <v>177</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="J16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="K16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="O16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -2212,56 +2344,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="X16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="Y16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37294</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>136049</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="J17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="K17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>2</v>
@@ -2283,56 +2419,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="X17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="Y17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37294</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>5091</v>
+      </c>
+      <c r="C18" t="s">
+        <v>198</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="J18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="K18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="O18" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -2354,56 +2494,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="X18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="Y18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37294</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>136050</v>
+      </c>
+      <c r="C19" t="s">
+        <v>207</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="J19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="K19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s">
+        <v>212</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
         <v>194</v>
       </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>178</v>
-      </c>
       <c r="O19" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2425,56 +2569,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="X19" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="Y19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37294</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>136051</v>
+      </c>
+      <c r="C20" t="s">
+        <v>214</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="J20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="K20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="L20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -2496,56 +2644,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="X20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Y20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37294</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>136052</v>
+      </c>
+      <c r="C21" t="s">
+        <v>223</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="J21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="K21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="O21" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -2567,56 +2719,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="X21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="Y21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37294</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>59818</v>
+      </c>
+      <c r="C22" t="s">
+        <v>233</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="J22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="K22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="L22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="O22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2634,56 +2790,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="X22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="Y22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37294</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>22381</v>
+      </c>
+      <c r="C23" t="s">
+        <v>242</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="J23" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="K23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="L23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="O23" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2695,56 +2855,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="X23" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="Y23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37294</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>136053</v>
+      </c>
+      <c r="C24" t="s">
+        <v>248</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="J24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="K24" t="s">
+        <v>252</v>
+      </c>
+      <c r="L24" t="s">
+        <v>253</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
         <v>229</v>
       </c>
-      <c r="L24" t="s">
-        <v>230</v>
-      </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>209</v>
-      </c>
       <c r="O24" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -2762,56 +2926,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="X24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="Y24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37294</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>16939</v>
+      </c>
+      <c r="C25" t="s">
+        <v>257</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="J25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="K25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="L25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -2823,56 +2991,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="X25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="Y25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37294</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>136054</v>
+      </c>
+      <c r="C26" t="s">
+        <v>266</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="J26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="K26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="L26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="O26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P26" t="n">
         <v>2</v>
@@ -2894,13 +3066,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="X26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="Y26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_218.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_218.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,129 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>29alyssar</t>
-  </si>
-  <si>
-    <t>05/29/2018</t>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r603956684-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>109035</t>
+  </si>
+  <si>
+    <t>603956684</t>
+  </si>
+  <si>
+    <t>08/07/2018</t>
+  </si>
+  <si>
+    <t>Hotel stay</t>
+  </si>
+  <si>
+    <t>Im writing this review because extended stay America has been really wonderful. There are some good front dest people.. Meeka went out of her way to make sure my family stay was good and as well as the new manager.. Im verry thankful for to have come across the extended stay 12270 Greenville ave Dallas txMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Greenville Ave., responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Im writing this review because extended stay America has been really wonderful. There are some good front dest people.. Meeka went out of her way to make sure my family stay was good and as well as the new manager.. Im verry thankful for to have come across the extended stay 12270 Greenville ave Dallas txMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r525467275-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>525467275</t>
+  </si>
+  <si>
+    <t>09/18/2017</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
+    <t>Great customer service, rooms are clean, and good location. Grab and go breakfast in the mornings also weekly's housekeeping for you. If those qualities in a extended stay hotel then this the place for you.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Greenville Ave., responded to this reviewResponded September 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2017</t>
+  </si>
+  <si>
+    <t>Great customer service, rooms are clean, and good location. Grab and go breakfast in the mornings also weekly's housekeeping for you. If those qualities in a extended stay hotel then this the place for you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r602668814-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>602668814</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>Very disrespectful</t>
+  </si>
+  <si>
+    <t>The house keeper Mercedes was very rude and disrespectful she clearly doesn't like her job as a house keeper she get a whole attitude and I will be reaching out to  corporate and anyone else in management I rent appreciate the disrespectMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Greenville Ave., responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>The house keeper Mercedes was very rude and disrespectful she clearly doesn't like her job as a house keeper she get a whole attitude and I will be reaching out to  corporate and anyone else in management I rent appreciate the disrespectMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r594180667-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>594180667</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>Nice location,</t>
+  </si>
+  <si>
+    <t>Nice location,  big room, cheap rate. near to wallmart, costco, I75. Near to Texas instruments INC. overall good experience. mocrowave was not good. Receptionists are not very friendly. I stayed here for 15 days.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Greenville Ave., responded to this reviewResponded July 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2018</t>
+  </si>
+  <si>
+    <t>Nice location,  big room, cheap rate. near to wallmart, costco, I75. Near to Texas instruments INC. overall good experience. mocrowave was not good. Receptionists are not very friendly. I stayed here for 15 days.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r568792942-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
-    <t>55711</t>
-  </si>
-  <si>
-    <t>109035</t>
-  </si>
-  <si>
     <t>568792942</t>
   </si>
   <si>
@@ -192,42 +300,6 @@
     <t>Overall, this place was pretty gross. The entire 2nd floor smelled like marijuana. The floors in our room were dirty and neither swept nor vacuumed. The toilet leaked water. The kitchen area was not clean, and had leftover food in the cabinets from a previous tenant. Thankfully, we were only here to sleep 1 night and leave immediately the next morning.More</t>
   </si>
   <si>
-    <t>Rakim H</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r525467275-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>525467275</t>
-  </si>
-  <si>
-    <t>09/18/2017</t>
-  </si>
-  <si>
-    <t>Stay</t>
-  </si>
-  <si>
-    <t>Great customer service, rooms are clean, and good location. Grab and go breakfast in the mornings also weekly's housekeeping for you. If those qualities in a extended stay hotel then this the place for you.MoreShow less</t>
-  </si>
-  <si>
-    <t>September 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>00esa, General Manager at Extended Stay America - Dallas - Greenville Ave., responded to this reviewResponded September 19, 2017</t>
-  </si>
-  <si>
-    <t>Responded September 19, 2017</t>
-  </si>
-  <si>
-    <t>Great customer service, rooms are clean, and good location. Grab and go breakfast in the mornings also weekly's housekeeping for you. If those qualities in a extended stay hotel then this the place for you.More</t>
-  </si>
-  <si>
-    <t>Nino R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r567661198-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -243,9 +315,6 @@
     <t>We booked through Priceline and understand you get what you get but the remote didn't work, the fridge was not cleaned, no evening staff attendant available, and no grab and go breakfast for us whrn we checked out at 8am.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Dallas - Greenville Ave., responded to this reviewResponded March 21, 2018</t>
   </si>
   <si>
@@ -255,9 +324,6 @@
     <t>We booked through Priceline and understand you get what you get but the remote didn't work, the fridge was not cleaned, no evening staff attendant available, and no grab and go breakfast for us whrn we checked out at 8am.More</t>
   </si>
   <si>
-    <t>Michelle S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r565647271-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -282,9 +348,6 @@
     <t>Love in penthouse @ the Extended Stay! My family and I are evacuees from Houston. This is the first time in 6 months that we've felt at home since losing it all. The ppl here are wonderfully nice and caring and kind. Ty Extended Stay for making this home!More</t>
   </si>
   <si>
-    <t>yangy03</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r560963518-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -303,9 +366,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Dallas - Greenville Ave., responded to this reviewResponded February 19, 2018</t>
   </si>
   <si>
@@ -313,9 +373,6 @@
   </si>
   <si>
     <t>Worst stay ever!!!!!!!!!! I didn't even stay because it was just that disgusting. I checked in after my 5 hour drive. The front desk told me that this was a non-smoking hotel. I was pretty happy with this because I hate the smell of cigs and etc. I got up to Level 2 and walked into the hallway it smelled like weed straight up. Went into my room 231 and was just happy to see such a cute homey place UNTIL! I noticed the fridge had some sticky brown stuff on it. The microwave was sticky on the outside. The floor was dirty, it didn't even look like it was mopped or vaccumed. The bed sheets had makeup stains, and I hope that it was that and not something else. The kitchen draws were dirty as well as the drawers for the clothes, EXCEPT in the drawers there were freaking PUBIC hair. I called front desk to complain and he told me there wasn't another room available. I had to get my refund because they went ahead and charged me already, so now I have to wait 5 ton7 business days to get my money back. I had to look for a new place to stay at 11 PM at night. Worst place ever and when I tried calling the 1-800 # it said they provide clean and comfy rooms. These rooms were probably worst than MOTEL 6! I have...Worst stay ever!!!!!!!!!! I didn't even stay because it was just that disgusting. I checked in after my 5 hour drive. The front desk told me that this was a non-smoking hotel. I was pretty happy with this because I hate the smell of cigs and etc. I got up to Level 2 and walked into the hallway it smelled like weed straight up. Went into my room 231 and was just happy to see such a cute homey place UNTIL! I noticed the fridge had some sticky brown stuff on it. The microwave was sticky on the outside. The floor was dirty, it didn't even look like it was mopped or vaccumed. The bed sheets had makeup stains, and I hope that it was that and not something else. The kitchen draws were dirty as well as the drawers for the clothes, EXCEPT in the drawers there were freaking PUBIC hair. I called front desk to complain and he told me there wasn't another room available. I had to get my refund because they went ahead and charged me already, so now I have to wait 5 ton7 business days to get my money back. I had to look for a new place to stay at 11 PM at night. Worst place ever and when I tried calling the 1-800 # it said they provide clean and comfy rooms. These rooms were probably worst than MOTEL 6! I have never see such disgusting place that was SUPPOSEDLY clean!!!! I was supposed to have a weekend getaway instead I HAD to GETAWAY from this hotel place. Thanks for ruining my weekend. P.s. did I mention the dripping sink too?!More</t>
-  </si>
-  <si>
-    <t>Myboo99</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r560934094-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
@@ -341,9 +398,6 @@
 They charged my card the no show fee for 1 night. I totally understand rules &amp; we were told about the no show rule. But seriously, sometimes in life there are times rules can be bent. They weren’t out anything by not showing up by 6pm I’m sure they rented that...I never even got the opportunity to stay at this hotel. We found out our townhome was full of mold from the HVAC unit. The property was allowing us to stay in their model considering my unit was making me deathly ill. When they found out I was paying out of pocket for a professional mold assessment they asked us to leave the model on a Friday night at 6pm, to be out by Monday. I booked a room at this hotel for a month check in on Sunday. Saturday was sold out. Saturday at noon I received an email telling us we had to get out by 5pm that day. Here I was in a panic packing up 2 cats, a 4 year old &amp; 2 adults to leave within hours. ES had no openings I had to find somewhere to go that night. My townhouse manager was threatening to change the locks. Illegal I know but I couldn’t risk losing what little personal items we had to our name. In the midst of all the chaos I forgot to call &amp; cancel the room at this location. They charged my card the no show fee for 1 night. I totally understand rules &amp; we were told about the no show rule. But seriously, sometimes in life there are times rules can be bent. They weren’t out anything by not showing up by 6pm I’m sure they rented that room anyways. It’s not like I stayed &amp; didn’t pay for it. I called in tears when I realized what had happened but they basically said too bad too late. They didn’t have an ounce of compassion whatsoever. Therefore I will never stay or recommend anyone stay at an extended stay ever. Candlewood Suites however has been amazing if you need another suggestion. Care more, be compassionate, stop making every single thing about money, customer service is a good place to start. More</t>
   </si>
   <si>
-    <t>Amber T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r557445022-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -371,19 +425,28 @@
     <t>We feel well taken care of. Always greeted promptly and reminded to ask for anything we need. The stand out for us is Wendy. She treats us like family and is very professional. So glad we chose this location!More</t>
   </si>
   <si>
-    <t>TMR87</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r552708348-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
     <t>552708348</t>
   </si>
   <si>
-    <t>January 9, 2018</t>
-  </si>
-  <si>
-    <t>Richie C</t>
+    <t>01/09/2018</t>
+  </si>
+  <si>
+    <t>Satisfied</t>
+  </si>
+  <si>
+    <t>Great hospitality &amp; customer service skills my room was clean and comfortable it’s in a great location keep up the hard work and continue to smile ! Nearby restaurant cheddars olive Gordon right across the street there is a Walmart right around the block less than 5 min drive MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Greenville Ave., responded to this reviewResponded January 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2018</t>
+  </si>
+  <si>
+    <t>Great hospitality &amp; customer service skills my room was clean and comfortable it’s in a great location keep up the hard work and continue to smile ! Nearby restaurant cheddars olive Gordon right across the street there is a Walmart right around the block less than 5 min drive More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r552560780-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
@@ -413,9 +476,6 @@
     <t>For two months my stay has been excellent.the entire staff have been so good to me.I would recommend it to everyone.very nice and clean place. Room are clean and the area is nice with many restaurants and storesMore</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r552054129-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -440,9 +500,6 @@
     <t>Excellent staff that helped me out alot. I recommend this hotel to anyone in the Area. There is a very nice relaxing energy there. Shorterm stay or long term. Clean rooms and the service is outstanding.More</t>
   </si>
   <si>
-    <t>Phantazia G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r546993049-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -467,9 +524,6 @@
     <t>Val, Michelle, Mamaduo have very great customer service people. They are very alert, nice, and just awesome. Love them. I will definitely come back. Breakfeast is out and on time. Nice costomer service great conversations make you feel like your at home not just in an hotel had all dishes towels laundry soap everything I needed.More</t>
   </si>
   <si>
-    <t>Jim G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r537682386-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -497,9 +551,6 @@
     <t>We booked this hotel for a weekend stay.  One of the attractions was the large refrigerator and kitchen.  Here's the problem.  Our room had absolutely no kitchen equipment.  There were no dishes, glasses, flatware, pots, pans, or utensils in the room.  The room was poorly maintained.  We put an empty roll-aboard suitcase in the closet shelf.  Within seconds the shelf collapsed.  I have my doubts about renting any ESA hotel room.  This hotel is, of course, on the do not call list.More</t>
   </si>
   <si>
-    <t>412huyv</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r534130695-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -524,9 +575,6 @@
     <t>Had a confirmed king size bed but none were available at check-in and still charge me the king size bed rate for the whole weekend. Most of the rooms smell of smoke. No breakfast only coffee.  Given a room with no TV or phone so had to request a different room. More</t>
   </si>
   <si>
-    <t>Melissa O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r532088456-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -551,9 +599,6 @@
     <t>The manager and staff are very professional, helpful and just overall friendly. From the maintenance man to the maid to the front desk to manager. A PROFESSIONAL but down to earth environment at the same Time. Pet friendly , clean and great location.More</t>
   </si>
   <si>
-    <t>ascarbrow66</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r508777898-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -584,9 +629,6 @@
     <t>Stayed here for two weeks and encountered no issues. All need facilities on site with helpful staff as well as breakfast in the morning being a nice touch. A good location with almost everything needed within a 5 minuet radius.More</t>
   </si>
   <si>
-    <t>62richardalang</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r507979367-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -614,9 +656,6 @@
     <t>Newly remodeled like a barn stall.  Not so nice. A lot of little details were broken, trashed. Looks like somebody just tried to save money... to make more money from the guests. The breakfast was a coffee machine and oatmeal packets.   The lobby was also their storage area. Told they did not have enough money to buy proper utensils.  Had to boil water in a saucepan.   Things looked roughed up...  Like a barn stall.More</t>
   </si>
   <si>
-    <t>James H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r507286037-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -641,9 +680,6 @@
     <t>I have stayed at the location before. It has gotten worse every time. This stay took the prize for the worst! Between the panhandlers, protistutes, drug deals in the parking lot, the people scoping out my vehicle, and people smoking pot in the stairwell, not to mention the staff that were busy with everything else EXCEPT customer service, I checked out early and it will take a small miracle to get me to return.More</t>
   </si>
   <si>
-    <t>E2061ZIdanielb</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r506774997-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -662,9 +698,6 @@
     <t>Excellent Service fair price best location for my visit. If I come again to Dallas I will stay with Extended stay America for sure. Best service very nice and friendly employee. Thank you for quality service you provide.More</t>
   </si>
   <si>
-    <t>970latashaj</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r504839947-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -689,9 +722,6 @@
     <t>Bathroom was very smelling. It reeked of urine.. Housekeeping didn't provide big towels so I had to go get them.. Also there was roaches crawling on the bathroom floor.. Not a good experience this time..More</t>
   </si>
   <si>
-    <t>H9652HSlarryw</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r500067283-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -719,9 +749,6 @@
     <t>This was a difficult situation for me me because the staff was awesome, but unfortunately I was bitten by bedbugs in my first room only to be attacked again in the next room I was sent to. If not for the bug problem, I would of had a wonderful experience.More</t>
   </si>
   <si>
-    <t>Jo B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r496232432-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -746,9 +773,6 @@
     <t>The rooms are clean an my service was by far best i had with extended stay in long time front desk Khandi was very nice and professional she took time make sure everything was in order for my stay i appreciate her going extra mile to make sure guest are comfortable thanks again definitely will stay again.More</t>
   </si>
   <si>
-    <t>Joanna M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r496207623-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -764,9 +788,6 @@
     <t>The Stay was very relaxing,It gave me a much needed relaxation.Ms.Khandi is a great host.She was sooo very kind.Even the room was very nice ,it was an awsome stay.Thanks to Ms Khandi*_*If I was shopping for a hotel in the future Extended Stay America would be my numberMore</t>
   </si>
   <si>
-    <t>Diamond P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r494073366-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -791,9 +812,6 @@
     <t>The rooms are clean. The staff is great! More so the Manager here is very friendly  and shows that he cares about you having a comfortable stay.  He addresses and concerns you may have immediately. If you need a place to stay for a while or even for a night...make Extended Stay America-dallas Greenville Ave. your 1st choice!More</t>
   </si>
   <si>
-    <t>Donnie D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r493104577-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
   </si>
   <si>
@@ -816,9 +834,6 @@
   </si>
   <si>
     <t>The Service at this Hotel was Great!But Khandi the Lady at the front deskWas exceptional. Very knowledgeable and helpful.Overall very well kept and tidy rooms are spacious and Accommodating.Thanks ESH!More</t>
-  </si>
-  <si>
-    <t>vernishar</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109035-r491363898-Extended_Stay_America_Dallas_Greenville_Ave-Dallas_Texas.html</t>
@@ -1347,122 +1362,104 @@
       <c r="A2" t="n">
         <v>37294</v>
       </c>
-      <c r="B2" t="n">
-        <v>136039</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>3</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37294</v>
       </c>
-      <c r="B3" t="n">
-        <v>136040</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>63</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1474,392 +1471,396 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
         <v>66</v>
-      </c>
-      <c r="X3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37294</v>
       </c>
-      <c r="B4" t="n">
-        <v>136041</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
         <v>70</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>71</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
         <v>72</v>
       </c>
-      <c r="K4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" t="s">
-        <v>74</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4" t="s">
-        <v>75</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2</v>
-      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37294</v>
       </c>
-      <c r="B5" t="n">
-        <v>6394</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
         <v>80</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>81</v>
-      </c>
-      <c r="J5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" t="s">
-        <v>83</v>
-      </c>
-      <c r="L5" t="s">
-        <v>84</v>
-      </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37294</v>
       </c>
-      <c r="B6" t="n">
-        <v>136042</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
         <v>88</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
         <v>89</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="O6" t="s">
         <v>90</v>
       </c>
-      <c r="J6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K6" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" t="s">
-        <v>93</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
         <v>1</v>
       </c>
-      <c r="N6" t="s">
-        <v>94</v>
-      </c>
-      <c r="O6" t="s">
-        <v>95</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="X6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="Y6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37294</v>
       </c>
-      <c r="B7" t="n">
-        <v>136043</v>
-      </c>
-      <c r="C7" t="s">
-        <v>99</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
         <v>47</v>
       </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
       <c r="I7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" t="n">
         <v>1</v>
       </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="X7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Y7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37294</v>
       </c>
-      <c r="B8" t="n">
-        <v>14639</v>
-      </c>
-      <c r="C8" t="s">
-        <v>107</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
       <c r="I8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="O8" t="s">
-        <v>75</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="X8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Y8" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37294</v>
       </c>
-      <c r="B9" t="n">
-        <v>136044</v>
-      </c>
-      <c r="C9" t="s">
-        <v>117</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
       <c r="I9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>120</v>
-      </c>
-      <c r="K9" t="s"/>
-      <c r="L9" t="s"/>
-      <c r="M9" t="s"/>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>115</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
@@ -1869,53 +1870,54 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37294</v>
       </c>
-      <c r="B10" t="n">
-        <v>136045</v>
-      </c>
-      <c r="C10" t="s">
-        <v>121</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s">
         <v>122</v>
       </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" t="s">
-        <v>123</v>
-      </c>
-      <c r="J10" t="s">
-        <v>124</v>
-      </c>
-      <c r="K10" t="s">
-        <v>125</v>
-      </c>
-      <c r="L10" t="s">
-        <v>126</v>
-      </c>
       <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>127</v>
-      </c>
-      <c r="O10" t="s">
-        <v>95</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
@@ -1926,60 +1928,56 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="X10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Y10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37294</v>
       </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>131</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
       <c r="I11" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="K11" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="O11" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1991,60 +1989,56 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="X11" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Y11" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37294</v>
       </c>
-      <c r="B12" t="n">
-        <v>136046</v>
-      </c>
-      <c r="C12" t="s">
-        <v>140</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
       <c r="I12" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K12" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="L12" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="O12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2056,648 +2050,582 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="X12" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Y12" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37294</v>
       </c>
-      <c r="B13" t="n">
-        <v>922</v>
-      </c>
-      <c r="C13" t="s">
-        <v>149</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
       <c r="I13" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="J13" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="K13" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="O13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>2</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>2</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="X13" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="Y13" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37294</v>
       </c>
-      <c r="B14" t="n">
-        <v>136047</v>
-      </c>
-      <c r="C14" t="s">
-        <v>159</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
         <v>47</v>
       </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
       <c r="I14" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="J14" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="K14" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="L14" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="O14" t="s">
-        <v>75</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>2</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="X14" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Y14" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37294</v>
       </c>
-      <c r="B15" t="n">
-        <v>97596</v>
-      </c>
-      <c r="C15" t="s">
-        <v>168</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
       <c r="I15" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="J15" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="O15" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="X15" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="Y15" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37294</v>
       </c>
-      <c r="B16" t="n">
-        <v>136048</v>
-      </c>
-      <c r="C16" t="s">
-        <v>177</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
         <v>47</v>
       </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
       <c r="I16" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="J16" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="K16" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="O16" t="s">
-        <v>184</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
-      <c r="S16" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="X16" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="Y16" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37294</v>
       </c>
-      <c r="B17" t="n">
-        <v>136049</v>
-      </c>
-      <c r="C17" t="s">
-        <v>188</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
         <v>47</v>
       </c>
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
       <c r="I17" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="J17" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="K17" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="O17" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="P17" t="n">
         <v>2</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="X17" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="Y17" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37294</v>
       </c>
-      <c r="B18" t="n">
-        <v>5091</v>
-      </c>
-      <c r="C18" t="s">
-        <v>198</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
         <v>47</v>
       </c>
-      <c r="H18" t="s">
-        <v>48</v>
-      </c>
       <c r="I18" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="J18" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="K18" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="O18" t="s">
-        <v>95</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="X18" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="Y18" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37294</v>
       </c>
-      <c r="B19" t="n">
-        <v>136050</v>
-      </c>
-      <c r="C19" t="s">
-        <v>207</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
         <v>47</v>
       </c>
-      <c r="H19" t="s">
-        <v>48</v>
-      </c>
       <c r="I19" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="J19" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="K19" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="O19" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="X19" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Y19" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37294</v>
       </c>
-      <c r="B20" t="n">
-        <v>136051</v>
-      </c>
-      <c r="C20" t="s">
-        <v>214</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
         <v>47</v>
       </c>
-      <c r="H20" t="s">
-        <v>48</v>
-      </c>
       <c r="I20" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="J20" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="K20" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="O20" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="X20" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="Y20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37294</v>
       </c>
-      <c r="B21" t="n">
-        <v>136052</v>
-      </c>
-      <c r="C21" t="s">
-        <v>223</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
         <v>47</v>
       </c>
-      <c r="H21" t="s">
-        <v>48</v>
-      </c>
       <c r="I21" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="J21" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="K21" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="L21" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="O21" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -2706,73 +2634,69 @@
         <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="X21" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="Y21" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37294</v>
       </c>
-      <c r="B22" t="n">
-        <v>59818</v>
-      </c>
-      <c r="C22" t="s">
-        <v>233</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
         <v>47</v>
       </c>
-      <c r="H22" t="s">
-        <v>48</v>
-      </c>
       <c r="I22" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="J22" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="K22" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="O22" t="s">
-        <v>65</v>
+        <v>199</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2780,8 +2704,12 @@
       <c r="Q22" t="n">
         <v>5</v>
       </c>
-      <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
         <v>5</v>
@@ -2790,134 +2718,140 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="X22" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="Y22" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37294</v>
       </c>
-      <c r="B23" t="n">
-        <v>22381</v>
-      </c>
-      <c r="C23" t="s">
-        <v>242</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
         <v>47</v>
       </c>
-      <c r="H23" t="s">
-        <v>48</v>
-      </c>
       <c r="I23" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="J23" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="K23" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="O23" t="s">
-        <v>95</v>
-      </c>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="X23" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="Y23" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37294</v>
       </c>
-      <c r="B24" t="n">
-        <v>136053</v>
-      </c>
-      <c r="C24" t="s">
-        <v>248</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
         <v>47</v>
       </c>
-      <c r="H24" t="s">
-        <v>48</v>
-      </c>
       <c r="I24" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="J24" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="K24" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="O24" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="n">
-        <v>4</v>
-      </c>
-      <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
         <v>5</v>
@@ -2926,153 +2860,340 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="X24" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="Y24" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37294</v>
       </c>
-      <c r="B25" t="n">
-        <v>16939</v>
-      </c>
-      <c r="C25" t="s">
-        <v>257</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
         <v>47</v>
       </c>
-      <c r="H25" t="s">
-        <v>48</v>
-      </c>
       <c r="I25" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="J25" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="K25" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="O25" t="s">
-        <v>54</v>
-      </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="X25" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="Y25" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37294</v>
       </c>
-      <c r="B26" t="n">
-        <v>136054</v>
-      </c>
-      <c r="C26" t="s">
-        <v>266</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
         <v>47</v>
       </c>
-      <c r="H26" t="s">
-        <v>48</v>
-      </c>
       <c r="I26" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="J26" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="K26" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="L26" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="O26" t="s">
-        <v>75</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" t="n">
-        <v>2</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>2</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
+        <v>248</v>
+      </c>
+      <c r="X26" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>37294</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>256</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>257</v>
+      </c>
+      <c r="J27" t="s">
+        <v>258</v>
+      </c>
+      <c r="K27" t="s">
+        <v>259</v>
+      </c>
+      <c r="L27" t="s">
+        <v>260</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>239</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>261</v>
+      </c>
+      <c r="X27" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>37294</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>264</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>265</v>
+      </c>
+      <c r="J28" t="s">
+        <v>266</v>
+      </c>
+      <c r="K28" t="s">
+        <v>267</v>
+      </c>
+      <c r="L28" t="s">
+        <v>268</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>239</v>
+      </c>
+      <c r="O28" t="s">
+        <v>90</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>269</v>
+      </c>
+      <c r="X28" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37294</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
         <v>272</v>
       </c>
-      <c r="X26" t="s">
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
         <v>273</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="J29" t="s">
         <v>274</v>
+      </c>
+      <c r="K29" t="s">
+        <v>275</v>
+      </c>
+      <c r="L29" t="s">
+        <v>276</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>239</v>
+      </c>
+      <c r="O29" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>277</v>
+      </c>
+      <c r="X29" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
